--- a/unittest.xlsx
+++ b/unittest.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t xml:space="preserve">haslo</t>
   </si>
   <si>
-    <t xml:space="preserve">wynik</t>
+    <t xml:space="preserve">przewidywany wynik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wynik UnitTestPassword.py</t>
   </si>
   <si>
     <t xml:space="preserve">QweAsd1$a</t>
@@ -58,9 +61,70 @@
     <t xml:space="preserve">PoiRReSDA*7*6^</t>
   </si>
   <si>
+    <t xml:space="preserve">qw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0, hasło zbyt krótkie, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nie wystarczająca liczba dużych liter,  nie wystarczająca liczba cyfr, nie wystarczająca liczba znaków</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; Password is too short, There is not enought capital letters in password, There is not enought digits in password, There is not enought signs in password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">889m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, hasło zbyt krótkie,  nie wystarczająca liczba dużych I małych liter, nie wystarczająca liczba znaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; Password is too short, There is not enought capital letters in password, There is not enought lower letters in password, There is not enought signs in password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, hasło zbyt krótkie,  nie wystarczająca liczba dużych I małych liter, nie wystarczająca liczba cyfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; Password is too short, There is not enought capital letters in password, There is not enought lower letters in password, There is not enought digits in password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, hasło zbyt krótkie,  nie wystarczająca liczba małych liter,  nie wystarczająca liczba cyfr, nie wystarczająca liczba znaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; Password is too short, There is not enought lower letters in password, There is not enought digits in password, There is not enought signs in password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i9</t>
+  </si>
+  <si>
     <t xml:space="preserve">pwardf980**&amp;8@</t>
   </si>
   <si>
+    <t xml:space="preserve">0, nie wystarczająca liczba dużych liter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; There is not enought capital letters in password</t>
+  </si>
+  <si>
     <t xml:space="preserve">**8(87^66rya</t>
   </si>
   <si>
@@ -76,6 +140,12 @@
     <t xml:space="preserve">AEQ*(*88U&amp;^</t>
   </si>
   <si>
+    <t xml:space="preserve">0, nie wystarczająca liczba małych liter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; There is not enought lower letters in password</t>
+  </si>
+  <si>
     <t xml:space="preserve">QWEF*(9891*</t>
   </si>
   <si>
@@ -88,7 +158,13 @@
     <t xml:space="preserve">POIQ*88(*9*091</t>
   </si>
   <si>
-    <t xml:space="preserve">Qwda*&amp;p</t>
+    <t xml:space="preserve">QtDa*&amp;8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, hasło zbyt krótkie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; Password is too short</t>
   </si>
   <si>
     <t xml:space="preserve">OiO9*Ui</t>
@@ -106,6 +182,12 @@
     <t xml:space="preserve">PiOd&amp;&amp;*&amp;asdDD</t>
   </si>
   <si>
+    <t xml:space="preserve">0, nie wystarczająca liczba cyfr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; There is not enought digits in password</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASDLKjdda*&amp;&amp;&amp;</t>
   </si>
   <si>
@@ -119,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">98ddDAsd76dcA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, nie wystarczająca liczba znaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 -&gt; There is not enought signs in password</t>
   </si>
   <si>
     <t xml:space="preserve">poi98ASD77aD</t>
@@ -140,11 +228,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,6 +249,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -204,8 +298,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,12 +321,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -230,16 +336,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="104.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="153.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,285 +357,448 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
+      <c r="A20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
